--- a/TNR_JDD/RO/JDD.RO.CCO.xlsx
+++ b/TNR_JDD/RO/JDD.RO.CCO.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
   <si>
     <t>Date</t>
   </si>
@@ -132,121 +132,28 @@
     <t>001</t>
   </si>
   <si>
-    <t>COM</t>
+    <t>CMP</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>ID_CODCOM</t>
+    <t>ID_CODCMP</t>
   </si>
   <si>
-    <t>@COMPTEUR@</t>
+    <t>$CODE COMPTABLE$</t>
   </si>
   <si>
     <t>varchar(30)</t>
   </si>
   <si>
-    <t>ID_CODUNI</t>
-  </si>
-  <si>
-    <t>Unite</t>
-  </si>
-  <si>
-    <t>ID_CODGES</t>
-  </si>
-  <si>
-    <t>$GESTIONNAIRE$</t>
-  </si>
-  <si>
-    <t>varchar(200)</t>
-  </si>
-  <si>
     <t>ST_DES</t>
   </si>
   <si>
-    <t>Désignation @COMPTEUR@</t>
+    <t>Désignation</t>
   </si>
   <si>
     <t>varchar(100)</t>
-  </si>
-  <si>
-    <t>NU_VALN</t>
-  </si>
-  <si>
-    <t>Valeur N</t>
-  </si>
-  <si>
-    <t>numeric</t>
-  </si>
-  <si>
-    <t>DT_MAJN</t>
-  </si>
-  <si>
-    <t>Mise a jour N</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>NU_VALN1</t>
-  </si>
-  <si>
-    <t>Valeur N-1</t>
-  </si>
-  <si>
-    <t>DT_MAJN1</t>
-  </si>
-  <si>
-    <t>Mise a jour N-1</t>
-  </si>
-  <si>
-    <t>NU_VALN2</t>
-  </si>
-  <si>
-    <t>Valeur N-2</t>
-  </si>
-  <si>
-    <t>DT_MAJN2</t>
-  </si>
-  <si>
-    <t>Mise a jour N-2</t>
-  </si>
-  <si>
-    <t>NU_DEL</t>
-  </si>
-  <si>
-    <t>Delta annuel</t>
-  </si>
-  <si>
-    <t>DT_MAJ</t>
-  </si>
-  <si>
-    <t>Mise a jour</t>
-  </si>
-  <si>
-    <t>NU_COECOR</t>
-  </si>
-  <si>
-    <t>Coef. correcteur</t>
-  </si>
-  <si>
-    <t>ST_NUMGTC</t>
-  </si>
-  <si>
-    <t>Numero GTC</t>
-  </si>
-  <si>
-    <t>varchar(15)</t>
-  </si>
-  <si>
-    <t>ST_MAJDEL</t>
-  </si>
-  <si>
-    <t>Mise a jour du delta annuel</t>
-  </si>
-  <si>
-    <t>boolean</t>
   </si>
   <si>
     <t>ID_CODUTI</t>
@@ -258,67 +165,19 @@
     <t>varchar(50)</t>
   </si>
   <si>
+    <t>ID_EXT</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
     <t>ST_INA</t>
   </si>
   <si>
     <t>Inactif</t>
   </si>
   <si>
-    <t>NU_MET</t>
-  </si>
-  <si>
-    <t>Méthode d'extrapolation</t>
-  </si>
-  <si>
-    <t>NU_DEG</t>
-  </si>
-  <si>
-    <t>Degré du polynome</t>
-  </si>
-  <si>
-    <t>ST_MPH</t>
-  </si>
-  <si>
-    <t>Mesure physique</t>
-  </si>
-  <si>
-    <t>ST_TELE</t>
-  </si>
-  <si>
-    <t>Télé-compteur</t>
-  </si>
-  <si>
-    <t>DT_DATREF</t>
-  </si>
-  <si>
-    <t>Date de référence</t>
-  </si>
-  <si>
-    <t>ID_CODCOMPRI</t>
-  </si>
-  <si>
-    <t>Compteur principal</t>
-  </si>
-  <si>
-    <t>ST_COMMAJEQU</t>
-  </si>
-  <si>
-    <t>Mettre à jour le $COMPTEUR$ principal des équipements enfants</t>
-  </si>
-  <si>
-    <t>ST_COMMAJMAT</t>
-  </si>
-  <si>
-    <t>Mettre à jour le $COMPTEUR$ principal des matricules posés</t>
-  </si>
-  <si>
-    <t>ST_COMNOTMAJ</t>
-  </si>
-  <si>
-    <t>Empecher la mise à jour du $COMPTEUR$ par un $COMPTEUR$</t>
-  </si>
-  <si>
-    <t>RO.ORG*001*ID_CODGES</t>
+    <t>boolean</t>
   </si>
   <si>
     <t>input</t>
@@ -330,7 +189,7 @@
     <t>JM Lafarge</t>
   </si>
   <si>
-    <t>Création de l'onglet 001 pour la table COM</t>
+    <t>Création de l'onglet 001 pour la table CMP</t>
   </si>
 </sst>
 </file>
@@ -951,13 +810,13 @@
     </row>
     <row customHeight="1" ht="12.75" r="2" spans="1:6">
       <c r="A2" t="n" s="21">
-        <v>45007.67284263889</v>
+        <v>45008.372783541665</v>
       </c>
       <c r="B2" t="s" s="22">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s" s="22">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s" s="22">
         <v>27</v>
@@ -2015,7 +1874,7 @@
         <v>27</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1069.0</v>
+        <v>1199.0</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>27</v>
@@ -2043,27 +1902,25 @@
         <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row customHeight="1" ht="12.75" r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row customHeight="1" ht="12.75" r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" t="s">
         <v>37</v>
       </c>
+      <c r="B7"/>
       <c r="C7" t="s">
         <v>38</v>
       </c>
@@ -2079,237 +1936,27 @@
         <v>41</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.75" r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.75" r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.75" r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.75" r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.75" r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.75" r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.75" r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.75" r="17">
-      <c r="A17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.75" r="18">
-      <c r="A18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.75" r="19">
-      <c r="A19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.75" r="20">
-      <c r="A20" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.75" r="21">
-      <c r="A21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.75" r="22">
-      <c r="A22" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.75" r="23">
-      <c r="A23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.75" r="24">
-      <c r="A24" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.75" r="25">
-      <c r="A25" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.75" r="26">
-      <c r="A26" t="s">
-        <v>80</v>
-      </c>
-      <c r="B26" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.75" r="27">
-      <c r="A27" t="s">
-        <v>82</v>
-      </c>
-      <c r="B27" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.75" r="28">
-      <c r="A28" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.75" r="29">
-      <c r="A29" t="s">
-        <v>86</v>
-      </c>
-      <c r="B29" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29" t="s">
-        <v>64</v>
-      </c>
-    </row>
+    <row customHeight="1" ht="12.75" r="9" spans="1:6"/>
+    <row customHeight="1" ht="12.75" r="10" spans="1:6"/>
+    <row customHeight="1" ht="12.75" r="11" spans="1:6"/>
+    <row customHeight="1" ht="12.75" r="12" spans="1:6"/>
+    <row customHeight="1" ht="12.75" r="13" spans="1:6"/>
+    <row customHeight="1" ht="12.75" r="14" spans="1:6"/>
+    <row customHeight="1" ht="12.75" r="15" spans="1:6"/>
+    <row customHeight="1" ht="12.75" r="16" spans="1:6"/>
+    <row customHeight="1" ht="12.75" r="17"/>
+    <row customHeight="1" ht="12.75" r="18"/>
+    <row customHeight="1" ht="12.75" r="19"/>
+    <row customHeight="1" ht="12.75" r="20"/>
+    <row customHeight="1" ht="12.75" r="21"/>
+    <row customHeight="1" ht="12.75" r="22"/>
+    <row customHeight="1" ht="12.75" r="23"/>
+    <row customHeight="1" ht="12.75" r="24"/>
+    <row customHeight="1" ht="12.75" r="25"/>
+    <row customHeight="1" ht="12.75" r="26"/>
+    <row customHeight="1" ht="12.75" r="27"/>
+    <row customHeight="1" ht="12.75" r="28"/>
+    <row customHeight="1" ht="12.75" r="29"/>
     <row customHeight="1" ht="12.75" r="30"/>
     <row customHeight="1" ht="12.75" r="31"/>
     <row customHeight="1" ht="12.75" r="32"/>
@@ -6247,7 +5894,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB1000"/>
+  <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="false">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B7" xSplit="1" ySplit="6"/>
@@ -6273,76 +5920,13 @@
         <v>31</v>
       </c>
       <c r="D1" t="s" s="19">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s" s="19">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F1" t="s" s="19">
         <v>39</v>
-      </c>
-      <c r="G1" t="s" s="19">
-        <v>42</v>
-      </c>
-      <c r="H1" t="s" s="19">
-        <v>45</v>
-      </c>
-      <c r="I1" t="s" s="19">
-        <v>47</v>
-      </c>
-      <c r="J1" t="s" s="19">
-        <v>49</v>
-      </c>
-      <c r="K1" t="s" s="19">
-        <v>51</v>
-      </c>
-      <c r="L1" t="s" s="19">
-        <v>53</v>
-      </c>
-      <c r="M1" t="s" s="19">
-        <v>55</v>
-      </c>
-      <c r="N1" t="s" s="19">
-        <v>57</v>
-      </c>
-      <c r="O1" t="s" s="19">
-        <v>59</v>
-      </c>
-      <c r="P1" t="s" s="19">
-        <v>62</v>
-      </c>
-      <c r="Q1" t="s" s="19">
-        <v>65</v>
-      </c>
-      <c r="R1" t="s" s="19">
-        <v>68</v>
-      </c>
-      <c r="S1" t="s" s="19">
-        <v>70</v>
-      </c>
-      <c r="T1" t="s" s="19">
-        <v>72</v>
-      </c>
-      <c r="U1" t="s" s="19">
-        <v>74</v>
-      </c>
-      <c r="V1" t="s" s="19">
-        <v>76</v>
-      </c>
-      <c r="W1" t="s" s="19">
-        <v>78</v>
-      </c>
-      <c r="X1" t="s" s="19">
-        <v>80</v>
-      </c>
-      <c r="Y1" t="s" s="19">
-        <v>82</v>
-      </c>
-      <c r="Z1" t="s" s="19">
-        <v>84</v>
-      </c>
-      <c r="AA1" t="s" s="19">
-        <v>86</v>
       </c>
     </row>
     <row ht="13.2" r="2" spans="1:2">
@@ -6351,32 +5935,9 @@
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
-      <c r="D2" s="13" t="s">
-        <v>88</v>
-      </c>
+      <c r="D2" s="13"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
     </row>
     <row ht="13.2" r="3" spans="1:2">
       <c r="A3" s="13" t="s">
@@ -6387,27 +5948,6 @@
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
     </row>
     <row ht="13.2" r="4" spans="1:2">
       <c r="A4" s="13" t="s">
@@ -6418,64 +5958,20 @@
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
     </row>
     <row ht="13.2" r="5" spans="1:2">
       <c r="A5" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13" t="s">
-        <v>89</v>
+      <c r="C5" s="13" t="s">
+        <v>42</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>89</v>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13" t="s">
+        <v>43</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
     </row>
     <row customHeight="1" ht="14.4" r="6" spans="1:2">
       <c r="A6" s="14" t="s">
@@ -6486,27 +5982,6 @@
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="14"/>
     </row>
     <row customHeight="1" ht="15.75" r="7" spans="1:2">
       <c r="A7" s="12"/>
